--- a/data/trans_bre/P36B13_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B13_R-Provincia-trans_bre.xlsx
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.76474114427455</v>
+        <v>-6.943189405201072</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4077200362670375</v>
+        <v>-0.3868384927316231</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
     </row>
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.522639115009873</v>
+        <v>5.263767898075775</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.935169660230099</v>
+        <v>1.898148501910465</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3621271185460125</v>
+        <v>0.4295859128609093</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
     </row>
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.872052392854149</v>
+        <v>-9.554076116802973</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.732752265849018</v>
+        <v>-4.582109167547261</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6157847940269917</v>
+        <v>-0.6090868337898868</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7663562300470703</v>
+        <v>-0.7494141505942654</v>
       </c>
     </row>
     <row r="9">
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.383828064152331</v>
+        <v>-2.051771699146507</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8193402201193415</v>
+        <v>0.6459071573700207</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2002718443800741</v>
+        <v>-0.1719480923288839</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4696489242499282</v>
+        <v>0.3403064294965236</v>
       </c>
     </row>
     <row r="10">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.18864465704625</v>
+        <v>-14.59181324768385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.156155356219634</v>
+        <v>-3.302302224195223</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.665506115078569</v>
+        <v>-0.6565648590565232</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5598704868187619</v>
+        <v>-0.5568340991816453</v>
       </c>
     </row>
     <row r="12">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.376095213118789</v>
+        <v>-3.855094959872395</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.991315217411804</v>
+        <v>2.897430507552772</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.2359664085432835</v>
+        <v>-0.2285591556917784</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.298232122438024</v>
+        <v>1.216828473690492</v>
       </c>
     </row>
     <row r="13">
@@ -782,13 +782,13 @@
         <v>-6.869360126619964</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-4.469099702076114</v>
+        <v>-4.469099702076113</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.5452586968723575</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.7299608146251554</v>
+        <v>-0.7299608146251553</v>
       </c>
     </row>
     <row r="14">
@@ -799,16 +799,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.04735778142825</v>
+        <v>-11.32903173720075</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.139783520998444</v>
+        <v>-9.729869739960291</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7320795884113278</v>
+        <v>-0.7345805517838785</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8953579168838104</v>
+        <v>-0.9045952720772824</v>
       </c>
     </row>
     <row r="15">
@@ -819,16 +819,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-2.537813771149347</v>
+        <v>-2.821757757621684</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.086691391789351</v>
+        <v>-1.571689395912502</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2189388153476228</v>
+        <v>-0.2357178268997233</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2332954426768248</v>
+        <v>-0.3308501012565824</v>
       </c>
     </row>
     <row r="16">
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.549536109526858</v>
+        <v>-9.830739436765279</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.78312710521764</v>
+        <v>-2.612287783121614</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.768330778172718</v>
+        <v>-0.7624687111352867</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.9338006242921205</v>
+        <v>-0.9031936448563264</v>
       </c>
     </row>
     <row r="18">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.02733898209461777</v>
+        <v>-0.1690335648906248</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7399498993914871</v>
+        <v>0.7704079374796403</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.08730051907196713</v>
+        <v>0.05355639882505694</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.713388400666627</v>
+        <v>2.617854120388964</v>
       </c>
     </row>
     <row r="19">
@@ -910,7 +910,7 @@
         <v>-2.934042485889067</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-2.626908408546619</v>
+        <v>-2.62690840854662</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.4693381409728687</v>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.39749427710221</v>
+        <v>-6.74882647770151</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.342503065696723</v>
+        <v>-5.391918617872492</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7846255669720323</v>
+        <v>-0.8087273346965014</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>-1</v>
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5270574575463322</v>
+        <v>0.4583527156522141</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.3720891595811784</v>
+        <v>-0.5316345901920908</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2182465635437638</v>
+        <v>0.1922995925048997</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.029484847118321</v>
+        <v>0.8535372012622994</v>
       </c>
     </row>
     <row r="22">
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.511568836782253</v>
+        <v>-6.202127405219016</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.330788647535915</v>
+        <v>-8.467884582158469</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.6064729807039244</v>
+        <v>-0.6103694907979059</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.6772010460937289</v>
+        <v>-0.6823057699933683</v>
       </c>
     </row>
     <row r="24">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.6943387460728115</v>
+        <v>-0.4728420828278103</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.66363544765855</v>
+        <v>-1.977963030498631</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-0.07255029683729311</v>
+        <v>-0.06202899275428352</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.1661272213662912</v>
+        <v>-0.2087872460756043</v>
       </c>
     </row>
     <row r="25">
@@ -1055,16 +1055,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-6.786830519418127</v>
+        <v>-6.888412249105431</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-11.20301481525996</v>
+        <v>-11.15394490383208</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4289000143672488</v>
+        <v>-0.4411042043452251</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6162767202520134</v>
+        <v>-0.6134055125196992</v>
       </c>
     </row>
     <row r="27">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.2500527925653634</v>
+        <v>-0.3555507153875924</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-4.193119681014006</v>
+        <v>-4.219720570920166</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01781111524193929</v>
+        <v>-0.03404028630125275</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3027653169032373</v>
+        <v>-0.2951921312740224</v>
       </c>
     </row>
     <row r="28">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.925778275153623</v>
+        <v>-6.123922146074657</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.057584583346848</v>
+        <v>-4.892335364312419</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>-0.4471850314601059</v>
+        <v>-0.4601650290278623</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.591551284660419</v>
+        <v>-0.5851715341054223</v>
       </c>
     </row>
     <row r="30">
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-3.218125325599937</v>
+        <v>-3.185858211693604</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.445462397974991</v>
+        <v>-2.429376578986798</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>-0.2729712349541538</v>
+        <v>-0.2736605227851167</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>-0.3520271266071458</v>
+        <v>-0.3532468588964363</v>
       </c>
     </row>
     <row r="31">
